--- a/dist/Summary_Output.xlsx
+++ b/dist/Summary_Output.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -763,17 +763,17 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>16 ก.พ. 67</t>
+          <t>14 พ.ค. 68</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>รับจาก ร้าน CP PORK SHOP</t>
+          <t>รับจาก ซีพี</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>เล่มที่ 8 เลขที่ 30</t>
+          <t>1224</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="E12" s="5" t="n">
-        <v>75.60000000000001</v>
+        <v>12.35</v>
       </c>
       <c r="F12" s="6" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
         </is>
       </c>
       <c r="J12" s="5" t="n">
-        <v>306.6</v>
+        <v>243.35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="inlineStr"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>-สันในหมู 0.54 กิโลกรัม@140.00.-</t>
+          <t>-ไข่เป็ด 1.0 ฟอง@12.35.-</t>
         </is>
       </c>
       <c r="C13" s="8" t="inlineStr"/>
@@ -824,27 +824,91 @@
       <c r="I13" s="8" t="inlineStr"/>
       <c r="J13" s="8" t="inlineStr"/>
     </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>16 ก.พ. 67</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>รับจาก ร้าน CP PORK SHOP</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>เล่มที่ 8 เลขที่ 30</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>1 รก.</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>75.60000000000001</v>
+      </c>
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H14" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>5 รก.</t>
+        </is>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>318.95</v>
+      </c>
+    </row>
     <row r="15">
       <c r="A15" s="6" t="inlineStr"/>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>จ่ายให้ ผศ.ดร.ศิริมา จิราราชะ</t>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>-สันในหมู 0.54 กิโลกรัม@140.00.-</t>
         </is>
       </c>
       <c r="C15" s="8" t="inlineStr"/>
       <c r="D15" s="8" t="inlineStr"/>
       <c r="E15" s="8" t="inlineStr"/>
-      <c r="F15" s="9" t="n"/>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>4 รก.</t>
-        </is>
-      </c>
-      <c r="H15" s="5" t="n">
-        <v>306.6</v>
-      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
       <c r="J15" s="8" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr"/>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>จ่ายให้ ผศ.ดร.ศิริมา จิราราชะ</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="inlineStr"/>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="9" t="n"/>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>5 รก.</t>
+        </is>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>318.95</v>
+      </c>
+      <c r="I17" s="8" t="inlineStr"/>
+      <c r="J17" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="8">
